--- a/trunk/运维部/部门联系方式.xlsx
+++ b/trunk/运维部/部门联系方式.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,15 +168,6 @@
     <t>胡幸</t>
   </si>
   <si>
-    <t>蓝勇辉</t>
-  </si>
-  <si>
-    <t>深圳南山</t>
-  </si>
-  <si>
-    <t>大师</t>
-  </si>
-  <si>
     <t>深圳宝安</t>
   </si>
   <si>
@@ -186,18 +177,6 @@
     <t>深圳南山白石洲</t>
   </si>
   <si>
-    <t>张舰</t>
-  </si>
-  <si>
-    <t>深圳南山粤海门</t>
-  </si>
-  <si>
-    <t>小林子</t>
-  </si>
-  <si>
-    <t>罗业刚</t>
-  </si>
-  <si>
     <t>徐正平</t>
   </si>
   <si>
@@ -210,35 +189,104 @@
     <t>深圳桃源村</t>
   </si>
   <si>
-    <t>深圳南山桃源村</t>
-  </si>
-  <si>
-    <t>章晋盛</t>
-  </si>
-  <si>
-    <t>深圳梅林关</t>
-  </si>
-  <si>
     <t>曹元</t>
   </si>
   <si>
     <t>深圳龙华</t>
   </si>
   <si>
-    <t>翁志丹</t>
-  </si>
-  <si>
-    <t>深圳民治出发</t>
-  </si>
-  <si>
-    <t>李聪平</t>
+    <t>夏勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳南山南头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南山白石洲</t>
+  </si>
+  <si>
+    <t>黄坛琴</t>
+  </si>
+  <si>
+    <t>宝安西乡</t>
+  </si>
+  <si>
+    <t>孙林青</t>
+  </si>
+  <si>
+    <t>倪宏业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李金平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳南山崇尚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾国庆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闫宏伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄浩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖君诺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈明栋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳南山蛇口</t>
+  </si>
+  <si>
+    <t>陈文杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王向磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳西乡平洲站</t>
+  </si>
+  <si>
+    <t>南山 西丽镇</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 深圳罗湖大剧院</t>
+  </si>
+  <si>
+    <t>南山海润公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳福田上沙</t>
+  </si>
+  <si>
+    <t>龙华坂田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,15 +320,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -302,8 +366,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6B9B8"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -331,8 +394,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -349,27 +415,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1005,10 +1072,10 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="4"/>
+      <c r="B31" s="5"/>
       <c r="C31" s="3">
         <f>SUM(C2:C30)</f>
         <v>43</v>
@@ -1026,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:E16"/>
+  <dimension ref="B2:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1041,177 +1108,226 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="2:5" ht="16.5">
+      <c r="B3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>13088835494</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="2:5" ht="16.5">
+      <c r="B4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="6">
+        <v>13823139191</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="16.5">
+      <c r="B5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="6">
+        <v>13824383201</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="8">
-        <v>13570830024</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="2:5" ht="16.5">
+      <c r="B6" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="14.25">
-      <c r="B5" s="7" t="s">
+      <c r="C6" s="6">
+        <v>13006654601</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="8">
-        <v>13824383201</v>
-      </c>
-      <c r="D5" s="7" t="s">
+    </row>
+    <row r="7" spans="2:5" ht="16.5">
+      <c r="B7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="6">
+        <v>13760148582</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="16.5">
+      <c r="B8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="6">
+        <v>13760365475</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="16.5">
+      <c r="B9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="6">
+        <v>13528884054</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="16.5">
+      <c r="B10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="9">
-        <v>360723506</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="7" t="s">
+      <c r="C10" s="6">
+        <v>13714332174</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="8">
-        <v>13006654601</v>
-      </c>
-      <c r="D6" s="7" t="s">
+    </row>
+    <row r="11" spans="2:5" ht="16.5">
+      <c r="B11" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="7" t="s">
+      <c r="C11" s="6">
+        <v>15815540326</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="8">
-        <v>13691738350</v>
-      </c>
-      <c r="D7" s="7" t="s">
+    </row>
+    <row r="12" spans="2:5" ht="16.5">
+      <c r="B12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="6">
+        <v>13798225302</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" ht="16.5">
+      <c r="B13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="6">
+        <v>13510751040</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="16.5">
+      <c r="B14" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="7" t="s">
+      <c r="C14" s="6">
+        <v>13590486207</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="8">
-        <v>15899750773</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="8">
-        <v>13926583624</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="8">
-        <v>13714332174</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="8">
-        <v>15815540326</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" ht="16.5">
+      <c r="B15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="6">
+        <v>13684949609</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="14.25">
-      <c r="B12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="8">
-        <v>13798225302</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="9">
-        <v>29158066</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="8">
-        <v>15818590405</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="14.25">
-      <c r="B14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="8">
-        <v>13590486207</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="9">
-        <v>47755482</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="8">
-        <v>15914043633</v>
-      </c>
-      <c r="D15" s="7" t="s">
+    <row r="16" spans="2:5" ht="16.5">
+      <c r="B16" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="6">
+        <v>15818602227</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="16.5">
+      <c r="B17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="8">
-        <v>13570812330</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>53</v>
+      <c r="C17" s="6">
+        <v>13570624050</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="16.5">
+      <c r="B18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="6">
+        <v>18923717149</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="16.5">
+      <c r="B19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="6">
+        <v>13590131897</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="16.5">
+      <c r="B20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="6">
+        <v>13530038279</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="16.5">
+      <c r="B21" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="6">
+        <v>13480947865</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
